--- a/finalResults/1.timeComputing/Tempo geral.xlsx
+++ b/finalResults/1.timeComputing/Tempo geral.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t xml:space="preserve">Algoritmo</t>
   </si>
@@ -64,16 +64,10 @@
     <t xml:space="preserve">MEAN</t>
   </si>
   <si>
-    <t xml:space="preserve">LPR0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPR3</t>
+    <t xml:space="preserve">LPMD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPMD</t>
   </si>
 </sst>
 </file>
@@ -220,12 +214,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -350,45 +348,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="16.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.15"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="25.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="25.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -428,43 +426,43 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>52.2034</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>1976.6788</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="5" t="n">
         <f aca="false">B3+C3</f>
         <v>2028.8822</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>53.1604</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>2051.2927</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <f aca="false">E3+F3</f>
         <v>2104.4531</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>53.1673</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>2481.9859</v>
       </c>
-      <c r="J3" s="4" t="n">
+      <c r="J3" s="5" t="n">
         <f aca="false">H3+I3</f>
         <v>2535.1532</v>
       </c>
-      <c r="K3" s="4" t="n">
+      <c r="K3" s="5" t="n">
         <v>92.4514</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <v>1675.428</v>
       </c>
       <c r="M3" s="0" t="n">
@@ -473,43 +471,43 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>540.467</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>31200.5859</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">B4+C4</f>
         <v>31741.0529</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>334.5886</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>15860.1418</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <f aca="false">E4+F4</f>
         <v>16194.7304</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>313.1978</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>27063.3966</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="J4" s="5" t="n">
         <f aca="false">H4+I4</f>
         <v>27376.5944</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K4" s="5" t="n">
         <v>300.8888</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6" t="n">
         <v>27984.7226</v>
       </c>
       <c r="M4" s="0" t="n">
@@ -518,43 +516,43 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>2766.3364</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>1760.5108</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">B5+C5</f>
         <v>4526.8472</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>2332.9425</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>1714.4971</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <f aca="false">E5+F5</f>
         <v>4047.4396</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>2562.1059</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <v>2824.0256</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <f aca="false">H5+I5</f>
         <v>5386.1315</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <v>3518.8873</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="6" t="n">
         <v>1784.4296</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -563,43 +561,43 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>4894.2975</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="6" t="n">
         <v>12927.5227</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <f aca="false">B6+C6</f>
         <v>17821.8202</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>5141.3026</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>12510.6635</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <f aca="false">E6+F6</f>
         <v>17651.9661</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>4907.202</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="6" t="n">
         <v>13620.0665</v>
       </c>
-      <c r="J6" s="4" t="n">
+      <c r="J6" s="5" t="n">
         <f aca="false">H6+I6</f>
         <v>18527.2685</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="5" t="n">
         <v>7992.8702</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="6" t="n">
         <v>12596.8827</v>
       </c>
       <c r="M6" s="0" t="n">
@@ -608,43 +606,43 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>26.7612</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="6" t="n">
         <v>38.9078</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">B7+C7</f>
         <v>65.669</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>25.7886</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>33.8052</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <f aca="false">E7+F7</f>
         <v>59.5938</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="5" t="n">
         <v>31.6017</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="6" t="n">
         <v>1091.5525</v>
       </c>
-      <c r="J7" s="4" t="n">
+      <c r="J7" s="5" t="n">
         <f aca="false">H7+I7</f>
         <v>1123.1542</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="5" t="n">
         <v>70.8805</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="6" t="n">
         <v>128.0283</v>
       </c>
       <c r="M7" s="0" t="n">
@@ -653,335 +651,211 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>317.1257</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>2709.3135</v>
-      </c>
-      <c r="D8" s="4" t="n">
+      <c r="B8" s="5" t="n">
+        <v>150.4498</v>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>1971.6961</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <f aca="false">B8+C8</f>
-        <v>3026.4392</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>886.2383</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>1453.7738</v>
-      </c>
-      <c r="G8" s="4" t="n">
+        <v>2122.1459</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>149.2773</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>993.7157</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <f aca="false">E8+F8</f>
-        <v>2340.0121</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>149.3093</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>3474.9424</v>
-      </c>
-      <c r="J8" s="4" t="n">
+        <v>1142.993</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>151.2169</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>2142.9863</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <f aca="false">H8+I8</f>
-        <v>3624.2517</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>229.7341</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>2796.0803</v>
+        <v>2294.2032</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>222.2503</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>997.0921</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">K8+L8</f>
-        <v>3025.8144</v>
+        <v>1219.3424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>140.7418</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>2616.5793</v>
-      </c>
-      <c r="D9" s="4" t="n">
+      <c r="B9" s="5" t="n">
+        <v>145.1529</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>9814.8863</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <f aca="false">B9+C9</f>
-        <v>2757.3211</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>136.2957</v>
+        <v>9960.0392</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>123.8216</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1326.11</v>
-      </c>
-      <c r="G9" s="4" t="n">
+        <v>7402.0617</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <f aca="false">E9+F9</f>
-        <v>1462.4057</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>145.254</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>3335.6615</v>
-      </c>
-      <c r="J9" s="4" t="n">
+        <v>7525.8833</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>129.1156</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>8603.7339</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <f aca="false">H9+I9</f>
-        <v>3480.9155</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>210.2152</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>2767.7156</v>
+        <v>8732.8495</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>186.1912</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>8158.2898</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">K9+L9</f>
-        <v>2977.9308</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>150.4498</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>1971.6961</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">B10+C10</f>
+        <v>8344.481</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>2028.8822</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>2104.4531</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>2535.1532</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>1767.8794</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>31741.0529</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>16194.7304</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>27376.5944</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>28285.6114</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>4526.8472</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>4047.4396</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>5386.1315</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>5303.3169</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="13" t="n">
+        <v>17821.8202</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>17651.9661</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <v>18527.2685</v>
+      </c>
+      <c r="E16" s="13" t="n">
+        <v>20589.7529</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="n">
         <v>2122.1459</v>
       </c>
-      <c r="E10" s="7" t="n">
-        <v>149.2773</v>
-      </c>
-      <c r="F10" s="8" t="n">
-        <v>993.7157</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <f aca="false">E10+F10</f>
+      <c r="C17" s="12" t="n">
         <v>1142.993</v>
       </c>
-      <c r="H10" s="7" t="n">
-        <v>151.2169</v>
-      </c>
-      <c r="I10" s="8" t="n">
-        <v>2142.9863</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <f aca="false">H10+I10</f>
+      <c r="D17" s="12" t="n">
         <v>2294.2032</v>
       </c>
-      <c r="K10" s="7" t="n">
-        <v>222.2503</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>997.0921</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <f aca="false">K10+L10</f>
+      <c r="E17" s="12" t="n">
         <v>1219.3424</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>145.1529</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>9814.8863</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">B11+C11</f>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="13" t="n">
         <v>9960.0392</v>
       </c>
-      <c r="E11" s="4" t="n">
-        <v>123.8216</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>7402.0617</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <f aca="false">E11+F11</f>
+      <c r="C18" s="13" t="n">
         <v>7525.8833</v>
       </c>
-      <c r="H11" s="4" t="n">
-        <v>129.1156</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>8603.7339</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <f aca="false">H11+I11</f>
+      <c r="D18" s="13" t="n">
         <v>8732.8495</v>
       </c>
-      <c r="K11" s="4" t="n">
-        <v>186.1912</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>8158.2898</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <f aca="false">K11+L11</f>
-        <v>8344.481</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="n">
-        <v>2028.8822</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>2104.4531</v>
-      </c>
-      <c r="D15" s="12" t="n">
-        <v>2535.1532</v>
-      </c>
-      <c r="E15" s="12" t="n">
-        <v>1767.8794</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>31741.0529</v>
-      </c>
-      <c r="C16" s="12" t="n">
-        <v>16194.7304</v>
-      </c>
-      <c r="D16" s="12" t="n">
-        <v>27376.5944</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>28285.6114</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12" t="n">
-        <v>4526.8472</v>
-      </c>
-      <c r="C17" s="12" t="n">
-        <v>4047.4396</v>
-      </c>
-      <c r="D17" s="12" t="n">
-        <v>5386.1315</v>
-      </c>
-      <c r="E17" s="12" t="n">
-        <v>5303.3169</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="n">
-        <v>17821.8202</v>
-      </c>
-      <c r="C18" s="12" t="n">
-        <v>17651.9661</v>
-      </c>
-      <c r="D18" s="12" t="n">
-        <v>18527.2685</v>
-      </c>
-      <c r="E18" s="12" t="n">
-        <v>20589.7529</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12" t="n">
-        <v>3026.4392</v>
-      </c>
-      <c r="C19" s="12" t="n">
-        <v>2340.0121</v>
-      </c>
-      <c r="D19" s="12" t="n">
-        <v>3624.2517</v>
-      </c>
-      <c r="E19" s="12" t="n">
-        <v>3025.8144</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="12" t="n">
-        <v>2757.3211</v>
-      </c>
-      <c r="C20" s="12" t="n">
-        <v>1462.4057</v>
-      </c>
-      <c r="D20" s="12" t="n">
-        <v>3480.9155</v>
-      </c>
-      <c r="E20" s="12" t="n">
-        <v>2977.9308</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="12" t="n">
-        <v>2122.1459</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>1142.993</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>2294.2032</v>
-      </c>
-      <c r="E21" s="11" t="n">
-        <v>1219.3424</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="12" t="n">
-        <v>9960.0392</v>
-      </c>
-      <c r="C22" s="12" t="n">
-        <v>7525.8833</v>
-      </c>
-      <c r="D22" s="12" t="n">
-        <v>8732.8495</v>
-      </c>
-      <c r="E22" s="12" t="n">
+      <c r="E18" s="13" t="n">
         <v>8344.481</v>
       </c>
     </row>
@@ -992,7 +866,7 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K3:K11 G3:G11 B3:B11 D3:E11">
+  <conditionalFormatting sqref="K3:K9 G3:G9 B3:B9 D3:E9">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="min" val="0"/>
@@ -1001,12 +875,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F0FF9F26-7424-4443-9FCC-BA2E889374C5}</x14:id>
+          <x14:id>{BB20F792-14EC-46E6-AE91-AE9F9B234A68}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J11 H3:H11">
+  <conditionalFormatting sqref="J3:J9 H3:H9">
     <cfRule type="dataBar" priority="3">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="min" val="0"/>
@@ -1015,12 +889,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1C1FC456-C090-41A2-B0C0-B373F1604E46}</x14:id>
+          <x14:id>{26DECC85-2CB5-4EDB-93B4-DF5415B6CB38}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K11 B3:B11 D3:E11 G3:H11">
+  <conditionalFormatting sqref="J3:K9 B3:B9 D3:E9 G3:H9">
     <cfRule type="dataBar" priority="4">
       <dataBar showValue="1" minLength="0" maxLength="100">
         <cfvo type="min" val="0"/>
@@ -1029,7 +903,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D2A0E096-CD1E-4A49-8B6B-E6562B4CCF7F}</x14:id>
+          <x14:id>{18D7F3DA-DF00-4660-B985-5F858CAB5A6F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1045,7 +919,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F0FF9F26-7424-4443-9FCC-BA2E889374C5}">
+          <x14:cfRule type="dataBar" id="{BB20F792-14EC-46E6-AE91-AE9F9B234A68}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1053,10 +927,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K11 G3:G11 B3:B11 D3:E11</xm:sqref>
+          <xm:sqref>K3:K9 G3:G9 B3:B9 D3:E9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1C1FC456-C090-41A2-B0C0-B373F1604E46}">
+          <x14:cfRule type="dataBar" id="{26DECC85-2CB5-4EDB-93B4-DF5415B6CB38}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1064,10 +938,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J3:J11 H3:H11</xm:sqref>
+          <xm:sqref>J3:J9 H3:H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D2A0E096-CD1E-4A49-8B6B-E6562B4CCF7F}">
+          <x14:cfRule type="dataBar" id="{18D7F3DA-DF00-4660-B985-5F858CAB5A6F}">
             <x14:dataBar minLength="0" maxLength="100" axisPosition="automatic" gradient="true">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1075,7 +949,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J3:K11 B3:B11 D3:E11 G3:H11</xm:sqref>
+          <xm:sqref>J3:K9 B3:B9 D3:E9 G3:H9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
